--- a/projects/مخزن_المستلزمات_الطبية_Transactions.xlsx
+++ b/projects/مخزن_المستلزمات_الطبية_Transactions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J201"/>
+  <dimension ref="A1:K204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>ملاحظات</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>رقم_المعاملة_المرجعية</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -532,6 +537,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -580,6 +586,7 @@
           <t>طلبية خاصة للعملاء</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -628,6 +635,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -676,6 +684,7 @@
           <t>شحنة جديدة من المورد الرئيسي</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -724,6 +733,7 @@
           <t>مخزون احتياطي</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -772,6 +782,7 @@
           <t>شحنة طارئة</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -820,6 +831,7 @@
           <t>شحنة جديدة من المورد الرئيسي</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -868,6 +880,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -916,6 +929,7 @@
           <t>مخزون احتياطي</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -964,6 +978,7 @@
           <t>شحنة طارئة</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1012,6 +1027,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1060,6 +1076,7 @@
           <t>مخزون احتياطي</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1108,6 +1125,7 @@
           <t>مخزون إضافي لفترة الذروة</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1156,6 +1174,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1204,6 +1223,7 @@
           <t>طلبية موسمية</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1252,6 +1272,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1300,6 +1321,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1348,6 +1370,7 @@
           <t>شحنة طارئة</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1396,6 +1419,7 @@
           <t>شحنة جديدة من المورد الرئيسي</t>
         </is>
       </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1444,6 +1468,7 @@
           <t>توريد أسبوعي</t>
         </is>
       </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1492,6 +1517,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1540,6 +1566,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1588,6 +1615,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1636,6 +1664,7 @@
           <t>طلبية موسمية</t>
         </is>
       </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1684,6 +1713,7 @@
           <t>مخزون احتياطي</t>
         </is>
       </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1732,6 +1762,7 @@
           <t>شحنة طارئة</t>
         </is>
       </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1780,6 +1811,7 @@
           <t>طلبية موسمية</t>
         </is>
       </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1828,6 +1860,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1876,6 +1909,7 @@
           <t>شحنة جديدة من المورد الرئيسي</t>
         </is>
       </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1924,6 +1958,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1972,6 +2007,7 @@
           <t>مخزون إضافي لفترة الذروة</t>
         </is>
       </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2020,6 +2056,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2068,6 +2105,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2116,6 +2154,7 @@
           <t>مخزون إضافي لفترة الذروة</t>
         </is>
       </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2164,6 +2203,7 @@
           <t>شحنة طارئة</t>
         </is>
       </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2212,6 +2252,7 @@
           <t>شحنة طارئة</t>
         </is>
       </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2260,6 +2301,7 @@
           <t>طلبية موسمية</t>
         </is>
       </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2308,6 +2350,7 @@
           <t>مخزون احتياطي</t>
         </is>
       </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2356,6 +2399,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2404,6 +2448,7 @@
           <t>مخزون إضافي لفترة الذروة</t>
         </is>
       </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2452,6 +2497,7 @@
           <t>شحنة جديدة من المورد الرئيسي</t>
         </is>
       </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2500,6 +2546,7 @@
           <t>شحنة جديدة من المورد الرئيسي</t>
         </is>
       </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2548,6 +2595,7 @@
           <t>مخزون إضافي لفترة الذروة</t>
         </is>
       </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2596,6 +2644,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2644,6 +2693,7 @@
           <t>شحنة جديدة من المورد الرئيسي</t>
         </is>
       </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2692,6 +2742,7 @@
           <t>طلبية خاصة للعملاء</t>
         </is>
       </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2740,6 +2791,7 @@
           <t>طلبية خاصة للعملاء</t>
         </is>
       </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2788,6 +2840,7 @@
           <t>شحنة طارئة</t>
         </is>
       </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2836,6 +2889,7 @@
           <t>مخزون إضافي لفترة الذروة</t>
         </is>
       </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2884,6 +2938,7 @@
           <t>توريد أسبوعي</t>
         </is>
       </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2932,6 +2987,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2980,6 +3036,7 @@
           <t>طلبية خاصة للعملاء</t>
         </is>
       </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3028,6 +3085,7 @@
           <t>شحنة طارئة</t>
         </is>
       </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3076,6 +3134,7 @@
           <t>طلبية موسمية</t>
         </is>
       </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3124,6 +3183,7 @@
           <t>مخزون احتياطي</t>
         </is>
       </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3172,6 +3232,7 @@
           <t>مخزون إضافي لفترة الذروة</t>
         </is>
       </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3220,6 +3281,7 @@
           <t>شحنة طارئة</t>
         </is>
       </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3268,6 +3330,7 @@
           <t>شحنة طارئة</t>
         </is>
       </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3316,6 +3379,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3364,6 +3428,7 @@
           <t>مخزون احتياطي</t>
         </is>
       </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3412,6 +3477,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3460,6 +3526,7 @@
           <t>طلبية موسمية</t>
         </is>
       </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3508,6 +3575,7 @@
           <t>شحنة طارئة</t>
         </is>
       </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3556,6 +3624,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3604,6 +3673,7 @@
           <t>مخزون احتياطي</t>
         </is>
       </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3652,6 +3722,7 @@
           <t>طلبية خاصة للعملاء</t>
         </is>
       </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3700,6 +3771,7 @@
           <t>مخزون احتياطي</t>
         </is>
       </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3748,6 +3820,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3796,6 +3869,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3844,6 +3918,7 @@
           <t>طلبية خاصة للعملاء</t>
         </is>
       </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3892,6 +3967,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3940,6 +4016,7 @@
           <t>طلبية موسمية</t>
         </is>
       </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3988,6 +4065,7 @@
           <t>مخزون احتياطي</t>
         </is>
       </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4036,6 +4114,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4084,6 +4163,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4132,6 +4212,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4180,6 +4261,7 @@
           <t>مخزون إضافي لفترة الذروة</t>
         </is>
       </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4228,6 +4310,7 @@
           <t>شحنة جديدة من المورد الرئيسي</t>
         </is>
       </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4276,6 +4359,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4324,6 +4408,7 @@
           <t>شحنة جديدة من المورد الرئيسي</t>
         </is>
       </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4372,6 +4457,7 @@
           <t>طلبية خاصة للعملاء</t>
         </is>
       </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4420,6 +4506,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4468,6 +4555,7 @@
           <t>طلبية موسمية</t>
         </is>
       </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4516,6 +4604,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4564,6 +4653,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4612,6 +4702,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4660,6 +4751,7 @@
           <t>مخزون إضافي لفترة الذروة</t>
         </is>
       </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4708,6 +4800,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4756,6 +4849,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4804,6 +4898,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4852,6 +4947,7 @@
           <t>شحنة طارئة</t>
         </is>
       </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4900,6 +4996,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4948,6 +5045,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4996,6 +5094,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5044,6 +5143,7 @@
           <t>طلبية خاصة للعملاء</t>
         </is>
       </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5092,6 +5192,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5140,6 +5241,7 @@
           <t>طلبية موسمية</t>
         </is>
       </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5188,6 +5290,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5236,6 +5339,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5284,6 +5388,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5332,6 +5437,7 @@
           <t>شحنة طارئة</t>
         </is>
       </c>
+      <c r="K102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5380,6 +5486,7 @@
           <t>شحنة طارئة</t>
         </is>
       </c>
+      <c r="K103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5428,6 +5535,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5476,6 +5584,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5524,6 +5633,7 @@
           <t>شحنة جديدة من المورد الرئيسي</t>
         </is>
       </c>
+      <c r="K106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5572,6 +5682,7 @@
           <t>مخزون احتياطي</t>
         </is>
       </c>
+      <c r="K107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5620,6 +5731,7 @@
           <t>شحنة جديدة من المورد الرئيسي</t>
         </is>
       </c>
+      <c r="K108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5668,6 +5780,7 @@
           <t>طلبية خاصة للعملاء</t>
         </is>
       </c>
+      <c r="K109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5716,6 +5829,7 @@
           <t>طلبية خاصة للعملاء</t>
         </is>
       </c>
+      <c r="K110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5764,6 +5878,7 @@
           <t>طلبية خاصة للعملاء</t>
         </is>
       </c>
+      <c r="K111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5812,6 +5927,7 @@
           <t>توريد أسبوعي</t>
         </is>
       </c>
+      <c r="K112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5860,6 +5976,7 @@
           <t>شحنة جديدة من المورد الرئيسي</t>
         </is>
       </c>
+      <c r="K113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5908,6 +6025,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5956,6 +6074,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6004,6 +6123,7 @@
           <t>مخزون إضافي لفترة الذروة</t>
         </is>
       </c>
+      <c r="K116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6052,6 +6172,7 @@
           <t>شحنة طارئة</t>
         </is>
       </c>
+      <c r="K117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6100,6 +6221,7 @@
           <t>مخزون إضافي لفترة الذروة</t>
         </is>
       </c>
+      <c r="K118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6148,6 +6270,7 @@
           <t>شحنة طارئة</t>
         </is>
       </c>
+      <c r="K119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6196,6 +6319,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6244,6 +6368,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6292,6 +6417,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6340,6 +6466,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6388,6 +6515,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6436,6 +6564,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6484,6 +6613,7 @@
           <t>توريد أسبوعي</t>
         </is>
       </c>
+      <c r="K126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -6532,6 +6662,7 @@
           <t>شحنة جديدة من المورد الرئيسي</t>
         </is>
       </c>
+      <c r="K127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6580,6 +6711,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6628,6 +6760,7 @@
           <t>طلبية خاصة للعملاء</t>
         </is>
       </c>
+      <c r="K129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6676,6 +6809,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6724,6 +6858,7 @@
           <t>طلبية موسمية</t>
         </is>
       </c>
+      <c r="K131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6772,6 +6907,7 @@
           <t>شحنة طارئة</t>
         </is>
       </c>
+      <c r="K132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6820,6 +6956,7 @@
           <t>شحنة طارئة</t>
         </is>
       </c>
+      <c r="K133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6868,6 +7005,7 @@
           <t>طلبية خاصة للعملاء</t>
         </is>
       </c>
+      <c r="K134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6916,6 +7054,7 @@
           <t>شحنة طارئة</t>
         </is>
       </c>
+      <c r="K135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6964,6 +7103,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7012,6 +7152,7 @@
           <t>طلبية موسمية</t>
         </is>
       </c>
+      <c r="K137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7060,6 +7201,7 @@
           <t>توريد أسبوعي</t>
         </is>
       </c>
+      <c r="K138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7108,6 +7250,7 @@
           <t>توريد أسبوعي</t>
         </is>
       </c>
+      <c r="K139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7156,6 +7299,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7204,6 +7348,7 @@
           <t>طلبية موسمية</t>
         </is>
       </c>
+      <c r="K141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7252,6 +7397,7 @@
           <t>طلبية خاصة للعملاء</t>
         </is>
       </c>
+      <c r="K142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7300,6 +7446,7 @@
           <t>شحنة طارئة</t>
         </is>
       </c>
+      <c r="K143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7348,6 +7495,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7396,6 +7544,7 @@
           <t>شحنة جديدة من المورد الرئيسي</t>
         </is>
       </c>
+      <c r="K145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7444,6 +7593,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7492,6 +7642,7 @@
           <t>شحنة طارئة</t>
         </is>
       </c>
+      <c r="K147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7540,6 +7691,7 @@
           <t>مخزون احتياطي</t>
         </is>
       </c>
+      <c r="K148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7588,6 +7740,7 @@
           <t>طلبية موسمية</t>
         </is>
       </c>
+      <c r="K149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7636,6 +7789,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -7684,6 +7838,7 @@
           <t>مخزون احتياطي</t>
         </is>
       </c>
+      <c r="K151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -7732,6 +7887,7 @@
           <t>شحنة طارئة</t>
         </is>
       </c>
+      <c r="K152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -7780,6 +7936,7 @@
           <t>طلبية خاصة للعملاء</t>
         </is>
       </c>
+      <c r="K153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -7828,6 +7985,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -7876,6 +8034,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7924,6 +8083,7 @@
           <t>طلبية موسمية</t>
         </is>
       </c>
+      <c r="K156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7972,6 +8132,7 @@
           <t>طلبية موسمية</t>
         </is>
       </c>
+      <c r="K157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8020,6 +8181,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8068,6 +8230,7 @@
           <t>توريد أسبوعي</t>
         </is>
       </c>
+      <c r="K159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8116,6 +8279,7 @@
           <t>مخزون إضافي لفترة الذروة</t>
         </is>
       </c>
+      <c r="K160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8164,6 +8328,7 @@
           <t>مخزون احتياطي</t>
         </is>
       </c>
+      <c r="K161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8212,6 +8377,7 @@
           <t>مخزون احتياطي</t>
         </is>
       </c>
+      <c r="K162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8260,6 +8426,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8308,6 +8475,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8356,6 +8524,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8404,6 +8573,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8452,6 +8622,7 @@
           <t>طلبية خاصة للعملاء</t>
         </is>
       </c>
+      <c r="K167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8500,6 +8671,7 @@
           <t>مخزون إضافي لفترة الذروة</t>
         </is>
       </c>
+      <c r="K168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8548,6 +8720,7 @@
           <t>طلبية خاصة للعملاء</t>
         </is>
       </c>
+      <c r="K169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8596,6 +8769,7 @@
           <t>مخزون احتياطي</t>
         </is>
       </c>
+      <c r="K170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -8644,6 +8818,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -8692,6 +8867,7 @@
           <t>شحنة جديدة من المورد الرئيسي</t>
         </is>
       </c>
+      <c r="K172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -8740,6 +8916,7 @@
           <t>توريد أسبوعي</t>
         </is>
       </c>
+      <c r="K173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -8788,6 +8965,7 @@
           <t>مخزون احتياطي</t>
         </is>
       </c>
+      <c r="K174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -8836,6 +9014,7 @@
           <t>طلبية خاصة للعملاء</t>
         </is>
       </c>
+      <c r="K175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -8884,6 +9063,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -8932,6 +9112,7 @@
           <t>توريد أسبوعي</t>
         </is>
       </c>
+      <c r="K177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -8980,6 +9161,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9028,6 +9210,7 @@
           <t>طلبية خاصة للعملاء</t>
         </is>
       </c>
+      <c r="K179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9076,6 +9259,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9124,6 +9308,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9172,6 +9357,7 @@
           <t>طلبية موسمية</t>
         </is>
       </c>
+      <c r="K182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9220,6 +9406,7 @@
           <t>توريد أسبوعي</t>
         </is>
       </c>
+      <c r="K183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9268,6 +9455,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -9316,6 +9504,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -9364,6 +9553,7 @@
           <t>مخزون إضافي لفترة الذروة</t>
         </is>
       </c>
+      <c r="K186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -9412,6 +9602,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -9460,6 +9651,7 @@
           <t>توريد أسبوعي</t>
         </is>
       </c>
+      <c r="K188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -9508,6 +9700,7 @@
           <t>تجديد المخزون الأساسي</t>
         </is>
       </c>
+      <c r="K189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -9556,6 +9749,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -9604,6 +9798,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -9652,6 +9847,7 @@
           <t>مخزون إضافي لفترة الذروة</t>
         </is>
       </c>
+      <c r="K192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -9700,6 +9896,7 @@
           <t>توريد أسبوعي</t>
         </is>
       </c>
+      <c r="K193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -9748,6 +9945,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -9796,6 +9994,7 @@
           <t>مخزون إضافي لفترة الذروة</t>
         </is>
       </c>
+      <c r="K195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -9844,6 +10043,7 @@
           <t>توزيع على المتاجر الفرعية</t>
         </is>
       </c>
+      <c r="K196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -9892,6 +10092,7 @@
           <t>مخزون احتياطي</t>
         </is>
       </c>
+      <c r="K197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -9940,6 +10141,7 @@
           <t>مخزون احتياطي</t>
         </is>
       </c>
+      <c r="K198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -9988,6 +10190,7 @@
           <t>طلبية خاصة للعملاء</t>
         </is>
       </c>
+      <c r="K199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -10036,6 +10239,7 @@
           <t>تسليم مجدول</t>
         </is>
       </c>
+      <c r="K200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -10083,6 +10287,140 @@
         <is>
           <t>مخزون إضافي لفترة الذروة</t>
         </is>
+      </c>
+      <c r="K201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1765132405</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>مخزن_المستلزمات_الطبية</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2025-12-07 20:33:25</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>طلاء أبيض</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>مواد التشطيب</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>دخول</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>22</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>365</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1765132427</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>مخزن_المستلزمات_الطبية</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2025-12-07 20:33:25</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>طلاء أبيض</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>مواد التشطيب</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>خروج</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>22</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>النظام</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>إلغاء معاملة رقم 1765132405 - تصحيح خطأ في الإدخال</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1765132405</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1765132427</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>مخزن_المستلزمات_الطبية</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2025-12-07 20:33:25</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>طلاء أبيض</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>مواد التشطيب</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>دخول</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>15</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>النظام</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>معاملة محدثة - تصحيح خطأ في الإدخال (من 22 إلى 15)</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1765132405</v>
       </c>
     </row>
   </sheetData>
